--- a/biology/Médecine/Marcel_Delcourt/Marcel_Delcourt.xlsx
+++ b/biology/Médecine/Marcel_Delcourt/Marcel_Delcourt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marcel Delcourt (né le 5 juillet 1927 à Luzarches, en Seine-et-Oise et mort le 3 mars 2015 (à 87 ans)[1] à Bernay, dans l'Eure) est un médecin généraliste, diplomate et homme politique français, cofondateur et premier président de l'association Médecins sans frontières.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marcel Delcourt (né le 5 juillet 1927 à Luzarches, en Seine-et-Oise et mort le 3 mars 2015 (à 87 ans) à Bernay, dans l'Eure) est un médecin généraliste, diplomate et homme politique français, cofondateur et premier président de l'association Médecins sans frontières.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Médecin à Brionne de 1962 à 1990. Marcel Delcourt eut rapidement au cours de sa carrière de médecin de campagne « envie de faire autre chose »[réf. nécessaire]. Les inondations du Bangladesh lui en donneront l'occasion et le conduiront à lancer un appel au monde médical à travers la presse spécialisée. Il s'agissait alors d'« apaiser les cris de souffrance et de désespoir » émanant des régions du monde les plus sinistrées.
 Pour cela, Marcel Delcourt entendait faire tomber tous les barrages, toutes les frontières[réf. nécessaire] pour sauver, soigner ces victimes.
